--- a/docs/Manual/source/tab/connectorsEN.xlsx
+++ b/docs/Manual/source/tab/connectorsEN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="52"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="48"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -1218,6 +1218,15 @@
     <t xml:space="preserve">Analog ground</t>
   </si>
   <si>
+    <t xml:space="preserve">PT1000_2+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input for 2. PT1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT1000_2-</t>
+  </si>
+  <si>
     <t xml:space="preserve">PT1000_1+</t>
   </si>
   <si>
@@ -1225,15 +1234,6 @@
   </si>
   <si>
     <t xml:space="preserve">PT1000_1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PT1000_2+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input for 2. PT1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PT1000_2-</t>
   </si>
   <si>
     <t xml:space="preserve">DITTL1</t>
@@ -11921,8 +11921,8 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12971,7 +12971,7 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/docs/Manual/source/tab/connectorsEN.xlsx
+++ b/docs/Manual/source/tab/connectorsEN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="48"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="438">
   <si>
     <t xml:space="preserve">This is a workbook with source tables of TGZ/TGS connector descriptions in English. Each sheet corresponds to one unique connector type. Since connectors are often repeated within TGZ (typically those on the control board), they are only listed once. I.e. E.g. IO connector 22pin weidmuller B2CF is used over and over again, so it is only listed here once as "X8_IO_22pin_B2CF"</t>
   </si>
@@ -805,6 +805,9 @@
   </si>
   <si>
     <t xml:space="preserve">13-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+B2</t>
   </si>
   <si>
     <t xml:space="preserve">+ Brake motor 2</t>
@@ -1763,8 +1766,8 @@
   </sheetPr>
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F50" activeCellId="0" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7912,8 +7915,8 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7955,12 +7958,11 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="str">
-        <f aca="false">+B2</f>
-        <v>-B2</v>
+      <c r="B3" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>231</v>
@@ -7974,7 +7976,7 @@
         <v>220</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>231</v>
@@ -7988,7 +7990,7 @@
         <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>231</v>
@@ -7999,10 +8001,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>231</v>
@@ -8013,10 +8015,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>231</v>
@@ -8077,10 +8079,10 @@
         <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8088,13 +8090,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8108,7 +8110,7 @@
         <v>119</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8122,7 +8124,7 @@
         <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8136,7 +8138,7 @@
         <v>113</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -8191,10 +8193,10 @@
         <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8202,13 +8204,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8219,10 +8221,10 @@
         <v>221</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8233,10 +8235,10 @@
         <v>220</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -8291,10 +8293,10 @@
         <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8305,10 +8307,10 @@
         <v>171</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8319,10 +8321,10 @@
         <v>171</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8333,10 +8335,10 @@
         <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -8388,13 +8390,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8402,13 +8404,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -8465,7 +8467,7 @@
         <v>203</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8479,7 +8481,7 @@
         <v>206</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8493,7 +8495,7 @@
         <v>226</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8507,7 +8509,7 @@
         <v>210</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8521,7 +8523,7 @@
         <v>212</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8535,7 +8537,7 @@
         <v>214</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8595,7 +8597,7 @@
         <v>226</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8603,13 +8605,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>254</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8617,13 +8619,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8631,13 +8633,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8645,13 +8647,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8659,13 +8661,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8673,13 +8675,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8687,13 +8689,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>226</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8701,13 +8703,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8715,13 +8717,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8776,7 +8778,7 @@
         <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>10</v>
@@ -8864,7 +8866,7 @@
         <v>203</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8878,7 +8880,7 @@
         <v>206</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8892,7 +8894,7 @@
         <v>226</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8906,7 +8908,7 @@
         <v>210</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8920,7 +8922,7 @@
         <v>212</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8934,7 +8936,7 @@
         <v>214</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8994,7 +8996,7 @@
         <v>226</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9002,13 +9004,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9016,13 +9018,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9030,13 +9032,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9044,13 +9046,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9058,13 +9060,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9072,13 +9074,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9086,13 +9088,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9100,13 +9102,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9114,13 +9116,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9128,13 +9130,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9142,13 +9144,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -9312,13 +9314,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9326,13 +9328,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9623,7 +9625,7 @@
         <v>203</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9637,7 +9639,7 @@
         <v>206</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9645,13 +9647,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9659,13 +9661,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9725,7 +9727,7 @@
         <v>203</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9739,7 +9741,7 @@
         <v>206</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9747,13 +9749,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9761,13 +9763,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9833,10 +9835,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>10</v>
@@ -9847,10 +9849,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>10</v>
@@ -9904,10 +9906,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>10</v>
@@ -9918,10 +9920,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>10</v>
@@ -9932,7 +9934,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>226</v>
@@ -9946,10 +9948,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>10</v>
@@ -9960,10 +9962,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>10</v>
@@ -9974,10 +9976,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>10</v>
@@ -9988,10 +9990,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>10</v>
@@ -10002,10 +10004,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>10</v>
@@ -10072,13 +10074,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10086,13 +10088,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10100,13 +10102,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10114,13 +10116,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -10172,13 +10174,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10186,13 +10188,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10200,13 +10202,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10214,13 +10216,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -10268,7 +10270,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>164</v>
@@ -10279,7 +10281,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>162</v>
@@ -10290,7 +10292,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>160</v>
@@ -10301,7 +10303,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>158</v>
@@ -10312,7 +10314,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>156</v>
@@ -10323,7 +10325,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>154</v>
@@ -10334,7 +10336,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>152</v>
@@ -10345,7 +10347,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>150</v>
@@ -10356,10 +10358,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10367,10 +10369,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10493,7 +10495,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>164</v>
@@ -10504,7 +10506,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>162</v>
@@ -10515,7 +10517,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>160</v>
@@ -10526,7 +10528,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>158</v>
@@ -10537,7 +10539,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>156</v>
@@ -10548,7 +10550,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>154</v>
@@ -10559,7 +10561,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>152</v>
@@ -10570,7 +10572,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>150</v>
@@ -10581,10 +10583,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10592,10 +10594,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10638,7 +10640,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>174</v>
@@ -10649,24 +10651,24 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10750,13 +10752,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10764,13 +10766,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10781,10 +10783,10 @@
         <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10795,10 +10797,10 @@
         <v>185</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10812,7 +10814,7 @@
         <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -11115,7 +11117,7 @@
         <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11253,7 +11255,7 @@
         <v>181</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11295,7 +11297,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>59</v>
@@ -11304,7 +11306,7 @@
         <v>198</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11312,7 +11314,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -11321,7 +11323,7 @@
         <v>196</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11329,7 +11331,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>190</v>
@@ -11338,7 +11340,7 @@
         <v>194</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11346,7 +11348,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>189</v>
@@ -11355,7 +11357,7 @@
         <v>192</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11406,7 +11408,7 @@
         <v>188</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11423,7 +11425,7 @@
         <v>186</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11507,7 +11509,7 @@
         <v>181</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11549,7 +11551,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>59</v>
@@ -11558,7 +11560,7 @@
         <v>198</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11566,7 +11568,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -11575,7 +11577,7 @@
         <v>196</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11583,7 +11585,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>190</v>
@@ -11592,7 +11594,7 @@
         <v>194</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11600,7 +11602,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>189</v>
@@ -11609,7 +11611,7 @@
         <v>192</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11727,7 +11729,7 @@
         <v>181</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11769,7 +11771,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>59</v>
@@ -11778,7 +11780,7 @@
         <v>198</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11786,7 +11788,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -11795,7 +11797,7 @@
         <v>196</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11803,7 +11805,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>190</v>
@@ -11812,7 +11814,7 @@
         <v>194</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11820,7 +11822,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>189</v>
@@ -11829,7 +11831,7 @@
         <v>192</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11921,7 +11923,7 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -11948,10 +11950,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11962,7 +11964,7 @@
         <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11970,10 +11972,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11981,10 +11983,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11992,10 +11994,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12003,10 +12005,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12014,10 +12016,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12028,7 +12030,7 @@
         <v>147</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12036,10 +12038,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12050,7 +12052,7 @@
         <v>147</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12058,10 +12060,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12072,7 +12074,7 @@
         <v>147</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12476,7 +12478,7 @@
         <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12487,7 +12489,7 @@
         <v>161</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12498,7 +12500,7 @@
         <v>159</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12509,7 +12511,7 @@
         <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12520,7 +12522,7 @@
         <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12531,7 +12533,7 @@
         <v>153</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12542,7 +12544,7 @@
         <v>151</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12553,7 +12555,7 @@
         <v>149</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12561,10 +12563,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12572,10 +12574,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12583,10 +12585,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12594,10 +12596,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12608,7 +12610,7 @@
         <v>141</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12619,7 +12621,7 @@
         <v>139</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12630,7 +12632,7 @@
         <v>137</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12641,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12652,7 +12654,7 @@
         <v>133</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12663,7 +12665,7 @@
         <v>131</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -12711,10 +12713,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12722,10 +12724,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12733,10 +12735,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12744,10 +12746,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12755,10 +12757,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12766,10 +12768,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12777,10 +12779,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12788,10 +12790,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -12839,10 +12841,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12850,10 +12852,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12861,10 +12863,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12872,10 +12874,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12883,10 +12885,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12897,7 +12899,7 @@
         <v>118</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12905,10 +12907,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12916,10 +12918,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12927,10 +12929,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12938,10 +12940,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12998,10 +13000,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13009,10 +13011,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13020,10 +13022,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13031,10 +13033,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13042,10 +13044,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13053,10 +13055,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13064,10 +13066,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13075,10 +13077,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
